--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält die 'Ethnizität einer Person'.</t>
+    <t>Dieses CDE enthält die 'Ethnizität'.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$123</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>6</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -1093,48 +1093,6 @@
     <t>Observation.category:DemographicHistoryDetail.text</t>
   </si>
   <si>
-    <t>Observation.category:EthnicGroup</t>
-  </si>
-  <si>
-    <t>EthnicGroup</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.id</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.code</t>
-  </si>
-  <si>
-    <t>364699009</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:EthnicGroup.text</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -1190,65 +1148,34 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ethnicBackgroundCode</t>
-  </si>
-  <si>
-    <t>ethnicBackgroundCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>LP72553-8</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.display</t>
+    <t>364699009</t>
   </si>
   <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:ethnicBackgroundCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Ethnic group</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2313,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP136"/>
+  <dimension ref="A1:AP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11444,13 +11371,11 @@
         <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11466,22 +11391,22 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>351</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11506,13 +11431,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>119</v>
+        <v>355</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>204</v>
+        <v>357</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11530,13 +11455,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>349</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>104</v>
@@ -11545,30 +11470,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>358</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>209</v>
+        <v>361</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11683,10 +11608,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11803,10 +11728,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>366</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11814,13 +11739,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>82</v>
@@ -11925,10 +11850,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12043,10 +11968,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12163,10 +12088,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12174,7 +12099,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>92</v>
@@ -12285,10 +12210,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12405,10 +12330,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12416,7 +12341,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12450,7 +12375,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12527,10 +12452,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12649,10 +12574,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12771,10 +12696,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>375</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12782,13 +12707,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>82</v>
@@ -12819,7 +12744,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12893,18 +12818,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>82</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
@@ -12919,19 +12844,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>378</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12956,13 +12881,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12980,10 +12905,10 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>92</v>
@@ -12992,33 +12917,33 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13029,7 +12954,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>82</v>
@@ -13038,18 +12963,20 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13098,19 +13025,19 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>387</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -13119,13 +13046,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>113</v>
+        <v>392</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13133,21 +13060,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -13156,21 +13083,23 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
       </c>
@@ -13206,46 +13135,46 @@
         <v>82</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13253,21 +13182,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>405</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13279,19 +13208,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>225</v>
+        <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>227</v>
+        <v>408</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>228</v>
+        <v>409</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13328,23 +13257,25 @@
         <v>82</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AC91" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>104</v>
@@ -13353,19 +13284,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>231</v>
+        <v>412</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13373,26 +13304,24 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>82</v>
@@ -13401,20 +13330,18 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>227</v>
+        <v>418</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13462,13 +13389,13 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>104</v>
@@ -13483,13 +13410,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>231</v>
+        <v>420</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>422</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13497,10 +13424,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13511,7 +13438,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>82</v>
@@ -13520,19 +13447,23 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>424</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13580,34 +13511,34 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>423</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>82</v>
+        <v>428</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>430</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13615,21 +13546,21 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13638,21 +13569,23 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>433</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13688,59 +13621,59 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>438</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>432</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>442</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13752,7 +13685,7 @@
         <v>92</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>82</v>
@@ -13761,26 +13694,26 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>240</v>
+        <v>434</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>242</v>
+        <v>436</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>390</v>
+        <v>82</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>82</v>
@@ -13798,13 +13731,11 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13822,7 +13753,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>244</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13831,7 +13762,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13840,27 +13771,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>246</v>
+        <v>442</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13880,21 +13811,23 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>249</v>
+        <v>449</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13918,13 +13851,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13942,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>252</v>
+        <v>448</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13951,7 +13884,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>455</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13963,10 +13896,10 @@
         <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>254</v>
+        <v>456</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13977,21 +13910,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>82</v>
@@ -14000,29 +13933,29 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>257</v>
+        <v>459</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>258</v>
+        <v>460</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>259</v>
+        <v>461</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>260</v>
+        <v>462</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>82</v>
@@ -14040,13 +13973,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -14064,13 +13997,13 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>262</v>
+        <v>457</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>104</v>
@@ -14082,27 +14015,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>263</v>
+        <v>466</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>397</v>
+        <v>469</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14113,7 +14046,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14122,22 +14055,22 @@
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>215</v>
+        <v>470</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>267</v>
+        <v>471</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>268</v>
+        <v>472</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>269</v>
+        <v>474</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14186,13 +14119,13 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>270</v>
+        <v>469</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
@@ -14207,10 +14140,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>271</v>
+        <v>475</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14221,10 +14154,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14244,23 +14177,21 @@
         <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>276</v>
+        <v>478</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>277</v>
+        <v>479</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14284,13 +14215,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14308,7 +14239,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14326,27 +14257,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>281</v>
+        <v>484</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>282</v>
+        <v>485</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>82</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14366,22 +14297,22 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>285</v>
+        <v>488</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>490</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>288</v>
+        <v>491</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14406,13 +14337,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14430,7 +14361,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14451,10 +14382,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>290</v>
+        <v>494</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>291</v>
+        <v>495</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14465,10 +14396,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14488,23 +14419,21 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>402</v>
+        <v>497</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>403</v>
+        <v>498</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>404</v>
+        <v>499</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14552,7 +14481,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>401</v>
+        <v>496</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14567,30 +14496,30 @@
         <v>170</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14601,7 +14530,7 @@
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
@@ -14610,19 +14539,19 @@
         <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>413</v>
+        <v>507</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14672,13 +14601,13 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>104</v>
@@ -14690,38 +14619,38 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>374</v>
+        <v>511</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -14730,22 +14659,22 @@
         <v>82</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>420</v>
+        <v>516</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>422</v>
+        <v>518</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>423</v>
+        <v>519</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14794,34 +14723,34 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>417</v>
+        <v>514</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>426</v>
+        <v>522</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -14829,14 +14758,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14852,23 +14781,19 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>430</v>
+        <v>215</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>431</v>
+        <v>216</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14916,7 +14841,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14925,25 +14850,25 @@
         <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>437</v>
+        <v>113</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>82</v>
@@ -14951,21 +14876,21 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14974,19 +14899,19 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>440</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>441</v>
+        <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>442</v>
+        <v>221</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>443</v>
+        <v>143</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15024,31 +14949,31 @@
         <v>82</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>439</v>
+        <v>222</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>82</v>
@@ -15057,13 +14982,13 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>445</v>
+        <v>106</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AP105" t="s" s="2">
         <v>82</v>
@@ -15071,14 +14996,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15091,25 +15016,25 @@
         <v>82</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>448</v>
+        <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>451</v>
+        <v>152</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15158,7 +15083,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15170,22 +15095,22 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AP106" t="s" s="2">
         <v>82</v>
@@ -15193,10 +15118,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15204,7 +15129,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>92</v>
@@ -15216,23 +15141,21 @@
         <v>82</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>458</v>
+        <v>533</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15268,17 +15191,19 @@
         <v>82</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>462</v>
+        <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15287,74 +15212,70 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>105</v>
+        <v>536</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>82</v>
       </c>
@@ -15378,11 +15299,13 @@
         <v>82</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Y108" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z108" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>82</v>
@@ -15400,7 +15323,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>456</v>
+        <v>539</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15409,36 +15332,36 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>536</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15464,16 +15387,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15498,13 +15421,13 @@
         <v>82</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>470</v>
+        <v>119</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15522,7 +15445,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15531,7 +15454,7 @@
         <v>92</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>479</v>
+        <v>104</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>105</v>
@@ -15540,13 +15463,13 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>106</v>
+        <v>551</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15557,14 +15480,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -15586,16 +15509,16 @@
         <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>483</v>
+        <v>553</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>484</v>
+        <v>554</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>485</v>
+        <v>555</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>486</v>
+        <v>556</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15620,13 +15543,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>487</v>
+        <v>557</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15644,7 +15567,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15662,27 +15585,27 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15693,7 +15616,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15705,19 +15628,19 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15766,19 +15689,19 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>565</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15787,10 +15710,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15801,10 +15724,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15827,16 +15750,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>504</v>
+        <v>259</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15862,13 +15785,13 @@
         <v>82</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>505</v>
+        <v>82</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -15886,7 +15809,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15904,27 +15827,27 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>507</v>
+        <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>510</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15935,7 +15858,7 @@
         <v>80</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>82</v>
@@ -15944,23 +15867,21 @@
         <v>82</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>198</v>
+        <v>573</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -15984,13 +15905,13 @@
         <v>82</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>82</v>
@@ -16008,19 +15929,19 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>82</v>
@@ -16029,10 +15950,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -16043,10 +15964,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16057,7 +15978,7 @@
         <v>80</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
@@ -16066,19 +15987,19 @@
         <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16128,13 +16049,13 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>104</v>
@@ -16146,27 +16067,27 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>525</v>
+        <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>528</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16177,7 +16098,7 @@
         <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>82</v>
@@ -16186,21 +16107,23 @@
         <v>82</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>588</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>589</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
       </c>
@@ -16248,45 +16171,45 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>537</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16297,7 +16220,7 @@
         <v>80</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>82</v>
@@ -16309,20 +16232,16 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>539</v>
+        <v>215</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>540</v>
+        <v>216</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>82</v>
       </c>
@@ -16370,19 +16289,19 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>538</v>
+        <v>218</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>82</v>
@@ -16391,10 +16310,10 @@
         <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>546</v>
+        <v>113</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16405,21 +16324,21 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16431,15 +16350,17 @@
         <v>82</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16476,31 +16397,31 @@
         <v>82</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC117" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>82</v>
@@ -16512,7 +16433,7 @@
         <v>82</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
@@ -16523,14 +16444,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>139</v>
+        <v>526</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16543,24 +16464,26 @@
         <v>82</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>141</v>
+        <v>527</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>221</v>
+        <v>528</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
       </c>
@@ -16596,19 +16519,19 @@
         <v>82</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>222</v>
+        <v>529</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16643,45 +16566,45 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>549</v>
+        <v>595</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>550</v>
+        <v>82</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>143</v>
+        <v>598</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>152</v>
+        <v>354</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16706,13 +16629,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16730,34 +16653,34 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>553</v>
+        <v>595</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -16765,10 +16688,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16788,21 +16711,23 @@
         <v>82</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>557</v>
+        <v>434</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O120" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
       </c>
@@ -16850,7 +16775,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16859,36 +16784,36 @@
         <v>92</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>559</v>
+        <v>104</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>560</v>
+        <v>105</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>82</v>
+        <v>604</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>561</v>
+        <v>441</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>562</v>
+        <v>442</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16911,18 +16836,20 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>555</v>
+        <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>608</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
       </c>
@@ -16946,13 +16873,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16970,7 +16897,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16979,10 +16906,10 @@
         <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>559</v>
+        <v>455</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>560</v>
+        <v>105</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>82</v>
@@ -16991,10 +16918,10 @@
         <v>82</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>561</v>
+        <v>106</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>566</v>
+        <v>456</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -17005,21 +16932,21 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>82</v>
@@ -17034,16 +16961,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>568</v>
+        <v>459</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>569</v>
+        <v>460</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>570</v>
+        <v>461</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>571</v>
+        <v>462</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -17068,13 +16995,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>119</v>
+        <v>446</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>572</v>
+        <v>463</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>573</v>
+        <v>464</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17092,13 +17019,13 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>104</v>
@@ -17110,27 +17037,27 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>574</v>
+        <v>465</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>82</v>
+        <v>468</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17153,19 +17080,19 @@
         <v>82</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>580</v>
+        <v>519</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17190,13 +17117,13 @@
         <v>82</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>82</v>
@@ -17214,7 +17141,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17223,1606 +17150,32 @@
         <v>81</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>575</v>
+        <v>521</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP124" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP125" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP126" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP127" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP128" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP129" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP130" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP131" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP133" t="s" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP134" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP135" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP136" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP136">
+  <autoFilter ref="A1:AP123">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18832,7 +17185,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI122">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4772" uniqueCount="612">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2277,7 +2274,7 @@
     <col min="26" max="26" width="57.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4067,10 +4064,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4094,13 +4091,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4108,13 +4105,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4218,13 +4215,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4232,10 +4229,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4258,13 +4255,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4315,7 +4312,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4350,10 +4347,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4382,7 +4379,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4435,7 +4432,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4470,10 +4467,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4496,19 +4493,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4557,7 +4554,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4578,10 +4575,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4592,10 +4589,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4618,13 +4615,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4675,7 +4672,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4710,10 +4707,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4742,7 +4739,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4795,7 +4792,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4830,10 +4827,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4859,65 +4856,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4938,10 +4935,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4952,10 +4949,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4978,16 +4975,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5037,7 +5034,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5058,10 +5055,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5072,10 +5069,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5101,65 +5098,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5180,10 +5177,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5194,10 +5191,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5220,19 +5217,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5281,7 +5278,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5302,10 +5299,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5316,10 +5313,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5342,19 +5339,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5403,7 +5400,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5424,10 +5421,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5438,10 +5435,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5464,19 +5461,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5525,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5546,10 +5543,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5560,13 +5557,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5670,13 +5667,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5684,10 +5681,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5710,13 +5707,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5767,7 +5764,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5802,10 +5799,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5834,7 +5831,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5887,7 +5884,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5922,10 +5919,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5948,19 +5945,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6009,7 +6006,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6030,10 +6027,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6044,10 +6041,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6070,13 +6067,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6127,7 +6124,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6162,10 +6159,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6194,7 +6191,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6247,7 +6244,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6282,10 +6279,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6311,23 +6308,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6369,7 +6366,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6390,10 +6387,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6404,10 +6401,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6430,16 +6427,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6489,7 +6486,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6510,10 +6507,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6524,10 +6521,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6553,23 +6550,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6611,7 +6608,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6632,10 +6629,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6646,10 +6643,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6672,19 +6669,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6733,7 +6730,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6754,10 +6751,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6768,10 +6765,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6794,19 +6791,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6855,7 +6852,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6876,10 +6873,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6890,10 +6887,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6916,19 +6913,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6977,7 +6974,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6998,10 +6995,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7012,13 +7009,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7122,13 +7119,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7136,10 +7133,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7162,13 +7159,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7219,7 +7216,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7254,10 +7251,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7286,7 +7283,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7339,7 +7336,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7374,10 +7371,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7400,19 +7397,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7461,7 +7458,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7482,10 +7479,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7496,10 +7493,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7522,13 +7519,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7579,7 +7576,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7614,10 +7611,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7646,7 +7643,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7699,7 +7696,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7734,10 +7731,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7763,23 +7760,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7821,7 +7818,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7842,10 +7839,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7856,10 +7853,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7882,16 +7879,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7941,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7962,10 +7959,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7976,10 +7973,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8005,23 +8002,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8063,7 +8060,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8084,10 +8081,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8098,10 +8095,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8124,19 +8121,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8185,7 +8182,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8206,10 +8203,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8220,10 +8217,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8246,19 +8243,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8307,7 +8304,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8328,10 +8325,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8342,10 +8339,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8368,19 +8365,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8429,7 +8426,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8450,10 +8447,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8464,13 +8461,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8574,13 +8571,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8588,10 +8585,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8614,13 +8611,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8671,7 +8668,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8706,10 +8703,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8738,7 +8735,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8791,7 +8788,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8826,10 +8823,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8852,19 +8849,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8913,7 +8910,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8934,10 +8931,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8948,10 +8945,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8974,13 +8971,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9031,7 +9028,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9066,10 +9063,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9098,7 +9095,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9151,7 +9148,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9186,10 +9183,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9215,23 +9212,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9273,7 +9270,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9294,10 +9291,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9308,10 +9305,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9334,16 +9331,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9393,7 +9390,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9414,10 +9411,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9428,10 +9425,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9457,23 +9454,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9515,7 +9512,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9536,10 +9533,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9550,10 +9547,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9576,19 +9573,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9637,7 +9634,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9658,10 +9655,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9672,10 +9669,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9698,19 +9695,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9759,7 +9756,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9780,10 +9777,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9794,10 +9791,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9820,19 +9817,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9881,7 +9878,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9902,10 +9899,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9916,13 +9913,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -10026,13 +10023,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10040,10 +10037,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10066,13 +10063,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10123,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10158,10 +10155,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10190,7 +10187,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10243,7 +10240,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10278,10 +10275,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10304,19 +10301,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10365,7 +10362,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10386,10 +10383,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10400,10 +10397,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10426,13 +10423,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10483,7 +10480,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10518,10 +10515,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10550,7 +10547,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10603,7 +10600,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10638,10 +10635,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10667,23 +10664,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10725,7 +10722,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10746,10 +10743,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10760,10 +10757,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10786,16 +10783,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10845,7 +10842,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10866,10 +10863,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10880,10 +10877,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10909,23 +10906,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10967,7 +10964,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10988,10 +10985,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11002,10 +10999,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11028,19 +11025,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11089,7 +11086,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11110,10 +11107,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11124,10 +11121,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11150,19 +11147,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11211,7 +11208,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11232,10 +11229,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11246,10 +11243,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11272,19 +11269,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11333,7 +11330,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11354,10 +11351,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11368,14 +11365,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11397,16 +11394,16 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11431,14 +11428,14 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y76" t="s" s="2">
+      <c r="Z76" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11455,7 +11452,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>92</v>
@@ -11470,30 +11467,30 @@
         <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AO76" t="s" s="2">
+      <c r="AP76" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11516,13 +11513,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11573,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11608,10 +11605,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11640,7 +11637,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11693,7 +11690,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11728,10 +11725,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11754,19 +11751,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11815,7 +11812,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11836,10 +11833,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11850,10 +11847,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11876,13 +11873,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11933,7 +11930,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11968,10 +11965,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12000,7 +11997,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12053,7 +12050,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12088,10 +12085,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12117,23 +12114,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12175,7 +12172,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12196,10 +12193,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12210,10 +12207,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12236,16 +12233,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12295,7 +12292,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12316,10 +12313,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12330,10 +12327,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12359,23 +12356,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12417,7 +12414,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12438,10 +12435,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12452,10 +12449,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12478,19 +12475,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12539,7 +12536,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12560,10 +12557,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12574,10 +12571,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12600,19 +12597,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12661,7 +12658,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12682,10 +12679,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12696,10 +12693,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12722,19 +12719,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12744,7 +12741,7 @@
         <v>82</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>82</v>
@@ -12783,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12804,10 +12801,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12818,10 +12815,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12844,19 +12841,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12905,7 +12902,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12920,19 +12917,19 @@
         <v>170</v>
       </c>
       <c r="AK88" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>82</v>
@@ -12940,10 +12937,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12966,16 +12963,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13025,7 +13022,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13046,13 +13043,13 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13060,14 +13057,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13086,19 +13083,19 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13147,7 +13144,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13162,19 +13159,19 @@
         <v>170</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13182,14 +13179,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13208,19 +13205,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13269,7 +13266,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13284,19 +13281,19 @@
         <v>105</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM91" t="s" s="2">
+      <c r="AN91" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13304,10 +13301,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13330,16 +13327,16 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13389,7 +13386,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13410,13 +13407,13 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13424,10 +13421,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13450,19 +13447,19 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13511,7 +13508,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13526,19 +13523,19 @@
         <v>170</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13546,10 +13543,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13575,16 +13572,16 @@
         <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13621,26 +13618,26 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI94" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>105</v>
@@ -13649,30 +13646,30 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>82</v>
@@ -13697,16 +13694,16 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13731,11 +13728,11 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13753,7 +13750,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13762,7 +13759,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13771,27 +13768,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13817,16 +13814,16 @@
         <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13851,40 +13848,40 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13899,7 +13896,7 @@
         <v>106</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13910,14 +13907,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13939,16 +13936,16 @@
         <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13973,14 +13970,14 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13997,7 +13994,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14015,27 +14012,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14058,19 +14055,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14119,7 +14116,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14140,10 +14137,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14154,10 +14151,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14183,13 +14180,13 @@
         <v>198</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14215,14 +14212,14 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14239,7 +14236,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14257,27 +14254,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AO99" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14303,16 +14300,16 @@
         <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14337,14 +14334,14 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>493</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14361,7 +14358,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14382,10 +14379,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14396,10 +14393,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14422,16 +14419,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14481,7 +14478,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14499,27 +14496,27 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>504</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14542,16 +14539,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14601,7 +14598,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14619,27 +14616,27 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>513</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14662,19 +14659,19 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14723,7 +14720,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14735,19 +14732,19 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14758,10 +14755,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14784,13 +14781,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14841,7 +14838,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14876,10 +14873,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14908,7 +14905,7 @@
         <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>143</v>
@@ -14961,7 +14958,7 @@
         <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14996,14 +14993,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15025,10 +15022,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15083,7 +15080,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15118,10 +15115,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15144,16 +15141,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15203,7 +15200,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15212,22 +15209,22 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AJ107" t="s" s="2">
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM107" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM107" t="s" s="2">
+      <c r="AN107" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15238,10 +15235,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15264,16 +15261,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M108" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="N108" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15323,7 +15320,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15332,22 +15329,22 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AJ108" t="s" s="2">
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="AK108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="AN108" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15358,10 +15355,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15387,16 +15384,16 @@
         <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15424,11 +15421,11 @@
         <v>119</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
       </c>
@@ -15445,7 +15442,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15463,13 +15460,13 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AN109" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15480,10 +15477,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15509,16 +15506,16 @@
         <v>198</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15543,14 +15540,14 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15567,7 +15564,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15585,13 +15582,13 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AN110" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15602,10 +15599,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15628,19 +15625,19 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N111" t="s" s="2">
+      <c r="O111" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15689,7 +15686,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15701,19 +15698,19 @@
         <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM111" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AK111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM111" t="s" s="2">
+      <c r="AN111" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15724,10 +15721,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15750,16 +15747,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M112" t="s" s="2">
-        <v>570</v>
-      </c>
       <c r="N112" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15809,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15830,10 +15827,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15844,10 +15841,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15870,16 +15867,16 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15929,7 +15926,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15950,10 +15947,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15964,10 +15961,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15990,16 +15987,16 @@
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16049,7 +16046,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16070,10 +16067,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16084,10 +16081,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16110,19 +16107,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16171,7 +16168,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16192,10 +16189,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16206,10 +16203,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16232,13 +16229,13 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16289,7 +16286,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16324,10 +16321,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16356,7 +16353,7 @@
         <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
@@ -16409,7 +16406,7 @@
         <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16444,14 +16441,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16473,10 +16470,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16531,7 +16528,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16566,10 +16563,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16595,16 +16592,16 @@
         <v>198</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="N119" t="s" s="2">
-        <v>598</v>
-      </c>
       <c r="O119" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16629,14 +16626,14 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y119" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y119" t="s" s="2">
+      <c r="Z119" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z119" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
       </c>
@@ -16653,7 +16650,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>92</v>
@@ -16671,16 +16668,16 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM119" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN119" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AN119" t="s" s="2">
+      <c r="AO119" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -16688,10 +16685,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16714,19 +16711,19 @@
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>603</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16775,7 +16772,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16793,27 +16790,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16839,16 +16836,16 @@
         <v>198</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N121" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="O121" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16873,40 +16870,40 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Z121" t="s" s="2">
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI121" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>105</v>
@@ -16921,7 +16918,7 @@
         <v>106</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16932,14 +16929,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16961,16 +16958,16 @@
         <v>198</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -16995,14 +16992,14 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
       </c>
@@ -17019,7 +17016,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17037,27 +17034,27 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AN122" t="s" s="2">
+      <c r="AO122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17083,16 +17080,16 @@
         <v>83</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="N123" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17141,7 +17138,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17162,10 +17159,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AN123" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-demographic-history-detail</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5270,7 +5270,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -5630,7 +5630,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5872,7 +5872,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6722,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -7082,7 +7082,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -7324,7 +7324,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -8174,7 +8174,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -8534,7 +8534,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8776,7 +8776,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -9626,7 +9626,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9986,7 +9986,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -10228,7 +10228,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -11078,7 +11078,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -11438,7 +11438,7 @@
         <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>82</v>
@@ -11680,7 +11680,7 @@
         <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11893" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11893" uniqueCount="872">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2665,6 +2665,9 @@
   <si>
     <t>Other
 Andere</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>Other ethic group</t>
@@ -21962,7 +21965,7 @@
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>92</v>
@@ -25956,7 +25959,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>92</v>
@@ -29950,7 +29953,7 @@
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G223" t="s" s="2">
         <v>92</v>
@@ -33944,7 +33947,7 @@
       </c>
       <c r="E256" s="2"/>
       <c r="F256" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G256" t="s" s="2">
         <v>92</v>
@@ -37938,7 +37941,7 @@
       </c>
       <c r="E289" s="2"/>
       <c r="F289" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G289" t="s" s="2">
         <v>92</v>
@@ -38924,10 +38927,10 @@
         <v>198</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>597</v>
+        <v>858</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N297" t="s" s="2">
         <v>627</v>
@@ -39017,7 +39020,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>629</v>
@@ -39135,7 +39138,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>631</v>
@@ -39255,7 +39258,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>633</v>
@@ -39375,7 +39378,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>667</v>
@@ -39497,7 +39500,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>601</v>
@@ -39619,7 +39622,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>606</v>
@@ -39737,7 +39740,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>607</v>
@@ -39857,7 +39860,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>673</v>
@@ -39868,7 +39871,7 @@
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G305" t="s" s="2">
         <v>92</v>
@@ -39901,7 +39904,7 @@
         <v>82</v>
       </c>
       <c r="S305" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="T305" t="s" s="2">
         <v>82</v>
@@ -39975,7 +39978,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>610</v>
@@ -40097,7 +40100,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>614</v>
@@ -40219,7 +40222,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>615</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -7201,7 +7201,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-ethnicity</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-ethnicity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-demographic-history-detail</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-demographic-history-detail</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1896,7 +1896,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-ethnic-groups</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-ethnic-groups</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2975,7 +2975,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.85546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-ethnicity</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-ethnicity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-demographic-history-detail</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-snomed-demographic-history-detail</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1896,7 +1896,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-ethnic-groups</t>
+    <t>http://fhir.org/de/ValueSet/vs-ethnic-groups</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-ethnicity</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-ethnicity</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-snomed-demographic-history-detail</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-snomed-demographic-history-detail</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1896,7 +1896,7 @@
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-ethnic-groups</t>
+    <t>http://hl7.org/de/ValueSet/vs-ethnic-groups</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4825,7 +4825,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -6277,7 +6277,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7729,7 +7729,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -9181,7 +9181,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -10633,7 +10633,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2061,7 +2061,7 @@
     <t>Observation.component:caucasian.code.coding:CaucasianUMLSCode.system</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Observation.component:caucasian.code.coding:CaucasianUMLSCode.version</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2061,7 +2061,7 @@
     <t>Observation.component:caucasian.code.coding:CaucasianUMLSCode.system</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Observation.component:caucasian.code.coding:CaucasianUMLSCode.version</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-ethnicity.xlsx
+++ b/output/StructureDefinition-cde-ethnicity.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
